--- a/데이터 수집 파이프라인/movie_data20220806.xlsx
+++ b/데이터 수집 파이프라인/movie_data20220806.xlsx
@@ -196,13 +196,13 @@
     <t>2022-08-10</t>
   </si>
   <si>
-    <t>4833676390</t>
-  </si>
-  <si>
-    <t>3450046301</t>
-  </si>
-  <si>
-    <t>813824500</t>
+    <t>4833645390</t>
+  </si>
+  <si>
+    <t>3450018301</t>
+  </si>
+  <si>
+    <t>813816500</t>
   </si>
   <si>
     <t>675153336</t>
@@ -256,13 +256,13 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>2268126206</t>
-  </si>
-  <si>
-    <t>1355252150</t>
-  </si>
-  <si>
-    <t>309341253</t>
+    <t>2268117206</t>
+  </si>
+  <si>
+    <t>1385224150</t>
+  </si>
+  <si>
+    <t>309333253</t>
   </si>
   <si>
     <t>261237379</t>
@@ -286,7 +286,7 @@
     <t>88.4</t>
   </si>
   <si>
-    <t>64.7</t>
+    <t>67.1</t>
   </si>
   <si>
     <t>61.3</t>
@@ -313,13 +313,13 @@
     <t>100</t>
   </si>
   <si>
-    <t>42401179034</t>
-  </si>
-  <si>
-    <t>11143556783</t>
-  </si>
-  <si>
-    <t>78719526974</t>
+    <t>42400162034</t>
+  </si>
+  <si>
+    <t>11083444783</t>
+  </si>
+  <si>
+    <t>78719383474</t>
   </si>
   <si>
     <t>18469074236</t>
@@ -328,10 +328,10 @@
     <t>3171468067</t>
   </si>
   <si>
-    <t>15505897333</t>
-  </si>
-  <si>
-    <t>18216030915</t>
+    <t>15505842333</t>
+  </si>
+  <si>
+    <t>18216002915</t>
   </si>
   <si>
     <t>268526099</t>
@@ -340,16 +340,16 @@
     <t>4553954674</t>
   </si>
   <si>
-    <t>135753200</t>
-  </si>
-  <si>
-    <t>465415</t>
-  </si>
-  <si>
-    <t>324478</t>
-  </si>
-  <si>
-    <t>74351</t>
+    <t>136494200</t>
+  </si>
+  <si>
+    <t>465411</t>
+  </si>
+  <si>
+    <t>324476</t>
+  </si>
+  <si>
+    <t>74350</t>
   </si>
   <si>
     <t>68046</t>
@@ -373,13 +373,13 @@
     <t>2543</t>
   </si>
   <si>
-    <t>214788</t>
-  </si>
-  <si>
-    <t>110904</t>
-  </si>
-  <si>
-    <t>27409</t>
+    <t>214786</t>
+  </si>
+  <si>
+    <t>125902</t>
+  </si>
+  <si>
+    <t>27408</t>
   </si>
   <si>
     <t>24954</t>
@@ -403,7 +403,7 @@
     <t>85.7</t>
   </si>
   <si>
-    <t>51.9</t>
+    <t>63.4</t>
   </si>
   <si>
     <t>58.4</t>
@@ -427,13 +427,13 @@
     <t>63.2</t>
   </si>
   <si>
-    <t>4157671</t>
-  </si>
-  <si>
-    <t>1119234</t>
-  </si>
-  <si>
-    <t>7380172</t>
+    <t>4157515</t>
+  </si>
+  <si>
+    <t>1089228</t>
+  </si>
+  <si>
+    <t>7380160</t>
   </si>
   <si>
     <t>1906013</t>
@@ -442,10 +442,10 @@
     <t>339566</t>
   </si>
   <si>
-    <t>1485245</t>
-  </si>
-  <si>
-    <t>1759847</t>
+    <t>1485241</t>
+  </si>
+  <si>
+    <t>1759845</t>
   </si>
   <si>
     <t>28514</t>
@@ -454,7 +454,7 @@
     <t>438448</t>
   </si>
   <si>
-    <t>14196</t>
+    <t>14193</t>
   </si>
   <si>
     <t>1637</t>
